--- a/weather_ui/ios/2x/others/对应表.xlsx
+++ b/weather_ui/ios/2x/others/对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,54 @@
   </si>
   <si>
     <t xml:space="preserve">cloth_3  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气有雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得带伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度骤降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比昨日降温超过5度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风力7级以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无忧出行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度污染以上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -804,12 +852,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
